--- a/Documentacion/Negocios/Contingencias.xlsx
+++ b/Documentacion/Negocios/Contingencias.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilianoAgustin\Documents\juego-sap-tfi\Documentacion\Negocios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="405" windowWidth="28275" windowHeight="12300"/>
+    <workbookView xWindow="360" yWindow="405" windowWidth="28275" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -205,6 +210,130 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -215,24 +344,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
-    <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -242,12 +378,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -289,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +461,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +513,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,24 +708,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -560,17 +733,17 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -578,24 +751,24 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -603,17 +776,17 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -621,24 +794,24 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -651,7 +824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -661,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
